--- a/teleg_bot/data_base.xlsx
+++ b/teleg_bot/data_base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9045" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -25,13 +25,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,11 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,15 +392,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="51.42578125" customWidth="1" min="2" max="2"/>
+    <col width="81.7109375" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,64 +415,81 @@
           <t>file_id</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>file_uniquie_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>goodbye</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAICOWJ-tZCSM0i11kikVetMIx63KL-rAAKZAAPDueEwKDSH48F0rd0kBA</t>
+          <t>Looni</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AgAD4xcAAhKTKUs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Луни</t>
+          <t>Diiiiiise</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAACAgIAAxkBAAICXmJ_aPsQ58QAAaIkbQrnm3f5mqJcyQACbBgAAiVYYUtLdFaG8bGFySQE</t>
+          <t>AgADnAADw7nhMA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Луни</t>
+          <t>Nu pusti esho eti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAACAgIAAxkBAAICaGJ_aTcP0eoWo4ttjREKaNVgE4qYAAJsGAACJVhhS0t0VobxsYXJJAQ</t>
+          <t>AgADUxcAAl2mQEk</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Тоже луни</t>
+          <t>ぬいどくち</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CAACAgIAAxkBAAICbmJ_aUj_Ph3cF6baUo7PVjeq8hPtAALjFwACEpMpS9U1gj-kHvtBJAQ</t>
+          <t>AgADIR0AAsW0KUs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ещё луни</t>
+          <t>Дмитрий Валерьевич если увидите мою базу данных закинте сюда пару стикеров</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CAACAgIAAxkBAAICeWJ_a33ALIpOB5gzrHoZ2ApDYB-3AAIMFgACxzIoSyCp2FM_l5kVJAQ</t>
+          <t>AgADuhEAAlJYCUg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Buy-Buy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AgADmQADw7nhMA</t>
         </is>
       </c>
     </row>
@@ -499,11 +507,14 @@
   </sheetPr>
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="n">
@@ -511,7 +522,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kira</t>
+          <t>Anton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
